--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_3_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_3_sawtooth_01_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.829279039089471e-05</v>
+        <v>9.01614080345281e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008970182384976208</v>
+        <v>0.003556098334722702</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.59989653041415</v>
+        <v>5.347171369788641</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.361158248269337, 8.838634812558963]</t>
+          <t>[2.2221450152771, 8.472197724300182]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0007460443019071672</v>
+        <v>0.0008451594919505201</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001492088603814334</v>
+        <v>0.00169031898390104</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.754736973835386</v>
+        <v>-1.056631763369539</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, -0.22642109215061623]</t>
+          <t>[-1.6730002920017704, -0.44026323473730855]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.005227649297464776</v>
+        <v>0.0008266124890827786</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005227649297464776</v>
+        <v>0.0008266124890827786</v>
       </c>
       <c r="S2" t="n">
-        <v>14.09144586573909</v>
+        <v>14.27974321893345</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.44138309971115, 15.741508631767037]</t>
+          <t>[12.5687136688529, 15.990772769014]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.121921921921999</v>
+        <v>4.370690690690797</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9365765765766021</v>
+        <v>1.821121121121169</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.307267267267395</v>
+        <v>6.920260260260424</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.36000000000037</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002538148332972057</v>
+        <v>0.0004790421237154119</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0125362738549981</v>
+        <v>0.003556098334722702</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.389673973799954</v>
+        <v>5.289868836112849</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.2552666854777659, 7.524081262122142]</t>
+          <t>[1.733016479841993, 8.846721192383704]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.00621747055870947</v>
+        <v>0.003694183817008589</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00621747055870947</v>
+        <v>0.003694183817008589</v>
       </c>
       <c r="O3" t="n">
-        <v>2.924605773612119</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.0566582537014253, 3.7925532935228135]</t>
+          <t>[1.540921321580579, 2.8239741771007347]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.655267034550434e-10</v>
+        <v>1.137028249331706e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>3.310534069100868e-10</v>
+        <v>2.274056498663413e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>13.52809639179214</v>
+        <v>12.71008832269407</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.769547684613926, 15.286645098970347]</t>
+          <t>[10.853099495016584, 14.567077150371547]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.02126126126146</v>
+        <v>15.70934934934956</v>
       </c>
       <c r="X3" t="n">
-        <v>9.656216216216361</v>
+        <v>13.25175175175193</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.38630630630656</v>
+        <v>18.16694694694719</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_3_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_3_sawtooth_01_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>9.01614080345281e-05</v>
+        <v>1.494262538470625e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003556098334722702</v>
+        <v>0.000532715920117018</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.347171369788641</v>
+        <v>5.275662225234179</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.2221450152771, 8.472197724300182]</t>
+          <t>[2.406663939632246, 8.144660510836113]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0008451594919505201</v>
+        <v>0.0003399652290287936</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00169031898390104</v>
+        <v>0.0006799304580575871</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.056631763369539</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.6730002920017704, -0.44026323473730855]</t>
+          <t>[-1.597526594618234, -0.49057903299300065]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0008266124890827786</v>
+        <v>0.0002390238317642179</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0008266124890827786</v>
+        <v>0.0002390238317642179</v>
       </c>
       <c r="S2" t="n">
-        <v>14.27974321893345</v>
+        <v>12.65517371519718</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.5687136688529, 15.990772769014]</t>
+          <t>[11.112039071763068, 14.198308358631298]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.370690690690797</v>
+        <v>4.318658658658766</v>
       </c>
       <c r="X2" t="n">
-        <v>1.821121121121169</v>
+        <v>2.0292492492493</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.920260260260424</v>
+        <v>6.608068068068232</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.07000000000032</v>
+        <v>24.01000000000031</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004790421237154119</v>
+        <v>0.0003674948034173564</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003556098334722702</v>
+        <v>0.002092683040052975</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.289868836112849</v>
+        <v>4.653004161179579</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.733016479841993, 8.846721192383704]</t>
+          <t>[1.8027961506027852, 7.503212171756373]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.003694183817008589</v>
+        <v>0.001462702484458456</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003694183817008589</v>
+        <v>0.001462702484458456</v>
       </c>
       <c r="O3" t="n">
-        <v>2.182447749340657</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.540921321580579, 2.8239741771007347]</t>
+          <t>[1.1761317842268104, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>1.137028249331706e-10</v>
+        <v>2.908992717820524e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>2.274056498663413e-10</v>
+        <v>5.817985435641049e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>12.71008832269407</v>
+        <v>10.78085030712814</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[10.853099495016584, 14.567077150371547]</t>
+          <t>[9.174811735436755, 12.386888878819533]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.70934934934956</v>
+        <v>16.82382382382404</v>
       </c>
       <c r="X3" t="n">
-        <v>13.25175175175193</v>
+        <v>14.1320120120122</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.16694694694719</v>
+        <v>19.51563563563589</v>
       </c>
     </row>
   </sheetData>
